--- a/Characteristis_and_photo_parsing/products.xlsx
+++ b/Characteristis_and_photo_parsing/products.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,12 +385,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Characteristis_and_photo_parsing/products.xlsx
+++ b/Characteristis_and_photo_parsing/products.xlsx
@@ -1,39 +1,973 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Characteristis_and_photo_parsing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C403A09-4ABD-423B-A746-B602539AFCF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="231">
+  <si>
+    <t>Кто делал</t>
+  </si>
+  <si>
+    <t>Поставщик</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Не заполняем!!! Страна категории</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>Коллекция</t>
+  </si>
+  <si>
+    <t>Наименование элемента</t>
+  </si>
+  <si>
+    <t>Артикул поставщика</t>
+  </si>
+  <si>
+    <t>Группа (это в зависимости от функции плитки в коллекции)</t>
+  </si>
+  <si>
+    <t>Назначение (для чего используется)</t>
+  </si>
+  <si>
+    <t>Цвет</t>
+  </si>
+  <si>
+    <t>Поверхность</t>
+  </si>
+  <si>
+    <t>Рисунок</t>
+  </si>
+  <si>
+    <t>Стиль</t>
+  </si>
+  <si>
+    <t>Форма</t>
+  </si>
+  <si>
+    <t>штук в упак.</t>
+  </si>
+  <si>
+    <t>Ширина, см</t>
+  </si>
+  <si>
+    <t>Длина, см</t>
+  </si>
+  <si>
+    <t>Толщина, мм</t>
+  </si>
+  <si>
+    <t>ед.изм</t>
+  </si>
+  <si>
+    <t>Наличие</t>
+  </si>
+  <si>
+    <t>Закупочная цена</t>
+  </si>
+  <si>
+    <t>Валюта</t>
+  </si>
+  <si>
+    <t>Закуп в руб.</t>
+  </si>
+  <si>
+    <t>Наценка  %</t>
+  </si>
+  <si>
+    <t>Розничная цена</t>
+  </si>
+  <si>
+    <t>Рек. цена</t>
+  </si>
+  <si>
+    <t>Скидка</t>
+  </si>
+  <si>
+    <t>Ночная цена</t>
+  </si>
+  <si>
+    <t>Проверка на пробел справа!</t>
+  </si>
+  <si>
+    <t>Реал-керамика</t>
+  </si>
+  <si>
+    <t>Индия</t>
+  </si>
+  <si>
+    <t>Realistik Индия</t>
+  </si>
+  <si>
+    <t>Dixon</t>
+  </si>
+  <si>
+    <t>Realistik Индия Dixon Cotton Porsh Decor 2 Керамогранит 60x120 см</t>
+  </si>
+  <si>
+    <t>С фруктами и едой</t>
+  </si>
+  <si>
+    <t>С посудой</t>
+  </si>
+  <si>
+    <t>С текстом</t>
+  </si>
+  <si>
+    <t>Под песок</t>
+  </si>
+  <si>
+    <t>Кракелюр</t>
+  </si>
+  <si>
+    <t>Под бамбук</t>
+  </si>
+  <si>
+    <t>С одуванчиками</t>
+  </si>
+  <si>
+    <t>Состаренная (рустик)</t>
+  </si>
+  <si>
+    <t>Фотоплитка (с фотографией)</t>
+  </si>
+  <si>
+    <t>С тюльпанами</t>
+  </si>
+  <si>
+    <t>С животными</t>
+  </si>
+  <si>
+    <t>Под дерево</t>
+  </si>
+  <si>
+    <t>Фасадная плитка</t>
+  </si>
+  <si>
+    <t>Под кирпич</t>
+  </si>
+  <si>
+    <t>Тротуарная брусчатка</t>
+  </si>
+  <si>
+    <t>Под паркет</t>
+  </si>
+  <si>
+    <t>Китайский</t>
+  </si>
+  <si>
+    <t>Декоративный кирпич</t>
+  </si>
+  <si>
+    <t>Фасадная</t>
+  </si>
+  <si>
+    <t>Детский</t>
+  </si>
+  <si>
+    <t>Искусственный камень</t>
+  </si>
+  <si>
+    <t>Зеркальная</t>
+  </si>
+  <si>
+    <t>Кэжуал</t>
+  </si>
+  <si>
+    <t>Узбекистан</t>
+  </si>
+  <si>
+    <t>Узбекистанская плитка</t>
+  </si>
+  <si>
+    <t>Натуральный камень</t>
+  </si>
+  <si>
+    <t>Под ламинат</t>
+  </si>
+  <si>
+    <t>Рустика</t>
+  </si>
+  <si>
+    <t>Иран</t>
+  </si>
+  <si>
+    <t>Иранская плитка</t>
+  </si>
+  <si>
+    <t>Для туалета</t>
+  </si>
+  <si>
+    <t>Под мрамор</t>
+  </si>
+  <si>
+    <t>Средиземноморский</t>
+  </si>
+  <si>
+    <t>Казахстан</t>
+  </si>
+  <si>
+    <t>Казахстанская плитка</t>
+  </si>
+  <si>
+    <t>Для фартука</t>
+  </si>
+  <si>
+    <t>Под камень</t>
+  </si>
+  <si>
+    <t>Лофт</t>
+  </si>
+  <si>
+    <t>ОАЭ</t>
+  </si>
+  <si>
+    <t>Арабская плитка</t>
+  </si>
+  <si>
+    <t>Агломератная плитка</t>
+  </si>
+  <si>
+    <t>Под бетон</t>
+  </si>
+  <si>
+    <t>Пэчворк</t>
+  </si>
+  <si>
+    <t>Австралия</t>
+  </si>
+  <si>
+    <t>Австралийская плитка</t>
+  </si>
+  <si>
+    <t>Для улицы</t>
+  </si>
+  <si>
+    <t>Под мозаику</t>
+  </si>
+  <si>
+    <t>Восточный</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Английская плитка</t>
+  </si>
+  <si>
+    <t>Для гаража</t>
+  </si>
+  <si>
+    <t>Моноколор</t>
+  </si>
+  <si>
+    <t>Прованс</t>
+  </si>
+  <si>
+    <t>Беларусь</t>
+  </si>
+  <si>
+    <t>Белорусская плитка</t>
+  </si>
+  <si>
+    <t>Для коридора</t>
+  </si>
+  <si>
+    <t>Ёлочка</t>
+  </si>
+  <si>
+    <t>Марокканский</t>
+  </si>
+  <si>
+    <t>Бельгия</t>
+  </si>
+  <si>
+    <t>Бельгийская плитка</t>
+  </si>
+  <si>
+    <t>Для лестницы</t>
+  </si>
+  <si>
+    <t>Под металл</t>
+  </si>
+  <si>
+    <t>Скандинавский</t>
+  </si>
+  <si>
+    <t>Болгария</t>
+  </si>
+  <si>
+    <t>Болгарская плитка</t>
+  </si>
+  <si>
+    <t>Для гостиной</t>
+  </si>
+  <si>
+    <t>С рисунком</t>
+  </si>
+  <si>
+    <t>Арт деко</t>
+  </si>
+  <si>
+    <t>Германия</t>
+  </si>
+  <si>
+    <t>Германская плитка</t>
+  </si>
+  <si>
+    <t>Для бани</t>
+  </si>
+  <si>
+    <t>Черно-белый</t>
+  </si>
+  <si>
+    <t>Под обои</t>
+  </si>
+  <si>
+    <t>Арабский</t>
+  </si>
+  <si>
+    <t>Индийская плитка</t>
+  </si>
+  <si>
+    <t>Для крыльца</t>
+  </si>
+  <si>
+    <t>Мультиколор</t>
+  </si>
+  <si>
+    <t>Под оникс</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Испания</t>
+  </si>
+  <si>
+    <t>Испанская плитка</t>
+  </si>
+  <si>
+    <t>Для цоколя</t>
+  </si>
+  <si>
+    <t>Розовый</t>
+  </si>
+  <si>
+    <t>Под кожу</t>
+  </si>
+  <si>
+    <t>Классический</t>
+  </si>
+  <si>
+    <t>Италия</t>
+  </si>
+  <si>
+    <t>Итальянская плитка</t>
+  </si>
+  <si>
+    <t>Для террасы</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Под травертин</t>
+  </si>
+  <si>
+    <t>Кантри</t>
+  </si>
+  <si>
+    <t>Китай</t>
+  </si>
+  <si>
+    <t>Китайская плитка</t>
+  </si>
+  <si>
+    <t>Для печи</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Под гальку</t>
+  </si>
+  <si>
+    <t>Хай-тек</t>
+  </si>
+  <si>
+    <t>Литва</t>
+  </si>
+  <si>
+    <t>Литовская плитка</t>
+  </si>
+  <si>
+    <t>Для камина</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>С цветами</t>
+  </si>
+  <si>
+    <t>Греческий</t>
+  </si>
+  <si>
+    <t>Нестандартная</t>
+  </si>
+  <si>
+    <t>Польша</t>
+  </si>
+  <si>
+    <t>Польская плитка</t>
+  </si>
+  <si>
+    <t>Декоративная плитка</t>
+  </si>
+  <si>
+    <t>Оранжевый</t>
+  </si>
+  <si>
+    <t>С листьями</t>
+  </si>
+  <si>
+    <t>Модерн</t>
+  </si>
+  <si>
+    <t>Ромб</t>
+  </si>
+  <si>
+    <t>Португалия</t>
+  </si>
+  <si>
+    <t>Португальская плитка</t>
+  </si>
+  <si>
+    <t>Настенная плитка</t>
+  </si>
+  <si>
+    <t>Желтый</t>
+  </si>
+  <si>
+    <t>С дельфинами</t>
+  </si>
+  <si>
+    <t>Морской</t>
+  </si>
+  <si>
+    <t>Круг</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Российская плитка</t>
+  </si>
+  <si>
+    <t>Плитка для ванной</t>
+  </si>
+  <si>
+    <t>Фиолетовый</t>
+  </si>
+  <si>
+    <t>Противоскользящая</t>
+  </si>
+  <si>
+    <t>Под ткань</t>
+  </si>
+  <si>
+    <t>Японский</t>
+  </si>
+  <si>
+    <t>Овал</t>
+  </si>
+  <si>
+    <t>Тунис</t>
+  </si>
+  <si>
+    <t>Тунисская плитка</t>
+  </si>
+  <si>
+    <t>Декор</t>
+  </si>
+  <si>
+    <t>Для кухни</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
+    <t>Лаппатированная</t>
+  </si>
+  <si>
+    <t>С розами</t>
+  </si>
+  <si>
+    <t>Античный</t>
+  </si>
+  <si>
+    <t>Шестиугольник (гексагон, соты)</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Турецкая плитка</t>
+  </si>
+  <si>
+    <t>Бордюр</t>
+  </si>
+  <si>
+    <t>Напольная плитка</t>
+  </si>
+  <si>
+    <t>Зеленый</t>
+  </si>
+  <si>
+    <t>Полированная</t>
+  </si>
+  <si>
+    <t>Под цемент</t>
+  </si>
+  <si>
+    <t>Барокко</t>
+  </si>
+  <si>
+    <t>Восьмиугольник (октагон)</t>
+  </si>
+  <si>
+    <t>Украина</t>
+  </si>
+  <si>
+    <t>Украинская плитка</t>
+  </si>
+  <si>
+    <t>Реал-керамика 16.12.24</t>
+  </si>
+  <si>
+    <t>Мозаика</t>
+  </si>
+  <si>
+    <t>Голубой</t>
+  </si>
+  <si>
+    <t>3D - объемная</t>
+  </si>
+  <si>
+    <t>С ракушками</t>
+  </si>
+  <si>
+    <t>Викторианский</t>
+  </si>
+  <si>
+    <t>Кабанчик</t>
+  </si>
+  <si>
+    <t>Погонный метр</t>
+  </si>
+  <si>
+    <t>Если в наличии - не заполняем</t>
+  </si>
+  <si>
+    <t>Раиса Ник.</t>
+  </si>
+  <si>
+    <t>Хорватия</t>
+  </si>
+  <si>
+    <t>Хорватская плитка</t>
+  </si>
+  <si>
+    <t>Керамогранит</t>
+  </si>
+  <si>
+    <t>Синий</t>
+  </si>
+  <si>
+    <t>Глянцевая</t>
+  </si>
+  <si>
+    <t>С бабочками</t>
+  </si>
+  <si>
+    <t>Современный</t>
+  </si>
+  <si>
+    <t>Квадрат</t>
+  </si>
+  <si>
+    <t>кв. м.</t>
+  </si>
+  <si>
+    <t>Нет в наличии</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>Оксана</t>
+  </si>
+  <si>
+    <t>Чехия</t>
+  </si>
+  <si>
+    <t>Чешская плитка</t>
+  </si>
+  <si>
+    <t>Клинкер (ступени)</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t>Матовая</t>
+  </si>
+  <si>
+    <t>В клетку</t>
+  </si>
+  <si>
+    <t>Ретро</t>
+  </si>
+  <si>
+    <t>Прямоугольник</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>Под заказ</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Цены без значка руб. (Числовой формат)</t>
+  </si>
+  <si>
+    <t>Лена</t>
+  </si>
+  <si>
+    <t>Вьетнам</t>
+  </si>
+  <si>
+    <t>Вьетнамская плитка</t>
+  </si>
+  <si>
+    <t>Ступени</t>
+  </si>
+  <si>
+    <t>Плитка для бассейна</t>
+  </si>
+  <si>
+    <t>Черный</t>
+  </si>
+  <si>
+    <t>Рельефная</t>
+  </si>
+  <si>
+    <t>В полоску</t>
+  </si>
+  <si>
+    <t>Деревенский</t>
+  </si>
+  <si>
+    <t>Треугольник</t>
+  </si>
+  <si>
+    <t>компл.</t>
+  </si>
+  <si>
+    <t>По запросу</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>не заполняем !!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не заполняем!!! </t>
+  </si>
+  <si>
+    <t>Ginza</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -41,85 +975,412 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="98">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="8" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="17">
+    <cellStyle name="Ввод  2 3 2 2 2 41" xfId="16" xr:uid="{6D06C138-CD2E-443E-A56B-04F9D333570F}"/>
+    <cellStyle name="Гиперссылка" xfId="8" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2 16 3 2 173" xfId="1" xr:uid="{1BD2F0C8-85B4-4E4B-AE12-A4D7D8FA20F7}"/>
+    <cellStyle name="Обычный 2 16 3 2 38 2 13 81" xfId="6" xr:uid="{33F76885-798E-43F0-B79C-94D3676CB013}"/>
+    <cellStyle name="Обычный 2 25 2 2 168 2" xfId="2" xr:uid="{A8A2C908-B8E4-44C9-957C-A47B660C7607}"/>
+    <cellStyle name="Обычный 2 25 2 2 168 2 47" xfId="12" xr:uid="{E7FD767E-F280-4A48-A4B8-7DE4DD40149C}"/>
+    <cellStyle name="Обычный 2 25 2 2 168 2 47 10" xfId="14" xr:uid="{DE4E9FBD-A246-40C4-BC3A-37D0CEED58F6}"/>
+    <cellStyle name="Обычный 2 25 2 2 168 2 51" xfId="13" xr:uid="{669E91BC-0835-4B79-80BD-07EEF481A405}"/>
+    <cellStyle name="Обычный 2 25 2 2 17 147" xfId="3" xr:uid="{AFCD3A1B-7414-412E-AC06-921DA315A380}"/>
+    <cellStyle name="Обычный 2 25 2 2 17 24 2 13 81" xfId="10" xr:uid="{39400750-B60E-4276-BF4A-DAE243888BD0}"/>
+    <cellStyle name="Обычный 2 35 3 2 186" xfId="7" xr:uid="{F6DAE35C-389D-4988-AC44-0C1BD725CC45}"/>
+    <cellStyle name="Обычный 2 61 2 2 188" xfId="9" xr:uid="{3BAD4891-355A-4B99-8247-D9A6406D0CE9}"/>
+    <cellStyle name="Обычный 2 65 5 31 2" xfId="11" xr:uid="{BFE3FDCF-FE4F-4F38-8578-E45CBCC8406D}"/>
+    <cellStyle name="Обычный 2 76 2 2 202" xfId="4" xr:uid="{1CC57065-A144-4D1B-B40E-94D06F874E8A}"/>
+    <cellStyle name="Обычный 2 76 2 2 64 81" xfId="5" xr:uid="{5CE6491E-7425-46A7-9365-60592A7397CE}"/>
+    <cellStyle name="Обычный 2 76 34 151 61" xfId="15" xr:uid="{2538F131-72CA-4FA8-8461-6CF11F41E09F}"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,19 +1646,2298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="43" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="43" customWidth="1"/>
+    <col min="13" max="15" width="12.42578125" style="43" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="43" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="43" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" style="43" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" style="43" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="13" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="44" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="46" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="48"/>
+    <col min="30" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="U1" s="38"/>
+    </row>
+    <row r="2" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="53"/>
+    </row>
+    <row r="15" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="53"/>
+    </row>
+    <row r="16" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="53"/>
+    </row>
+    <row r="17" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="53"/>
+    </row>
+    <row r="18" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="53"/>
+    </row>
+    <row r="19" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="U22" s="63"/>
+    </row>
+    <row r="23" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="63"/>
+    </row>
+    <row r="24" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="N24" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="U24" s="63"/>
+    </row>
+    <row r="25" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="U25" s="63"/>
+    </row>
+    <row r="26" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="N26" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="U26" s="63"/>
+    </row>
+    <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="N27" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="U27" s="63"/>
+    </row>
+    <row r="28" spans="1:29" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" s="43"/>
+      <c r="M28" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+    </row>
+    <row r="29" spans="1:29" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="43"/>
+      <c r="M29" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="N29" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="O29" s="43"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+    </row>
+    <row r="30" spans="1:29" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="43"/>
+      <c r="M30" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="N30" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="O30" s="43"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+    </row>
+    <row r="31" spans="1:29" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="43"/>
+      <c r="M31" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="O31" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+    </row>
+    <row r="32" spans="1:29" s="66" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="L32" s="43"/>
+      <c r="M32" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="N32" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="O32" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="70"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+    </row>
+    <row r="33" spans="1:30" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="43"/>
+      <c r="M33" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="N33" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="O33" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+    </row>
+    <row r="34" spans="1:30" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="74"/>
+      <c r="I34" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="K34" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="L34" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="M34" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O34" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+    </row>
+    <row r="35" spans="1:30" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="74"/>
+      <c r="I35" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="K35" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="L35" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="M35" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O35" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="70"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+    </row>
+    <row r="36" spans="1:30" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="74"/>
+      <c r="I36" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J36" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="K36" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M36" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O36" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+    </row>
+    <row r="37" spans="1:30" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M37" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="N37" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O37" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="U37" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="71"/>
+    </row>
+    <row r="38" spans="1:30" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J38" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="K38" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M38" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O38" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="U38" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="V38" s="50"/>
+      <c r="W38" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="71"/>
+      <c r="AC38" s="71"/>
+    </row>
+    <row r="39" spans="1:30" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="65"/>
+      <c r="C39" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="74"/>
+      <c r="I39" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J39" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M39" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O39" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="U39" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="V39" s="50"/>
+      <c r="W39" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="X39" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="86"/>
+      <c r="AA39" s="86"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="71"/>
+    </row>
+    <row r="40" spans="1:30" s="66" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="87"/>
+      <c r="C40" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="J40" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="K40" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="N40" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="O40" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="U40" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="V40" s="91"/>
+      <c r="W40" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="X40" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="92"/>
+      <c r="AB40" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC40" s="93"/>
+    </row>
+    <row r="41" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y41" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD41" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="16" t="str">
+        <f>IF(C42=C$18,D$18,IF(C42=C$19,D$19,IF(C42=C$20,D$20,IF(C42=C$21,D$21,IF(C42=C$22,D$22,IF(C42=C$23,D$23,IF(C42=C$24,D$24,IF(C42=C$25,D$25,IF(C42=C$26,D$26,IF(C42=C$27,D$27,IF(C42=C$28,D$28,IF(C42=C$29,D$29,IF(C42=C$30,D$30,IF(C42=C$31,D$31,IF(C42=C$32,D$32,IF(C42=C$33,D$33,IF(C42=C$34,D$34,IF(C42=C$35,D$35,IF(C42=C$36,D$36,IF(C42=C$37,D$37,IF(C42=C$38,D$38,IF(C42=C$39,D$39,IF(C42=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="29">
+        <f t="shared" ref="X42:X64" si="0">IF(W42="USD",V42*64.8306,IF(W42="EUR",V42*72.3639,IF(W42="RUB",V42,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z42" s="31">
+        <f t="shared" ref="Z42:Z64" si="1">X42*(1+Y42/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="33">
+        <f t="shared" ref="AB42:AB64" si="2">IF(AA42,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="33">
+        <f t="shared" ref="AC42:AC64" si="3">IF(AA42,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="34" t="str">
+        <f t="shared" ref="AD42:AD64" si="4">IF(RIGHT(G42,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="16" t="str">
+        <f t="shared" ref="D43:D51" si="5">IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="95"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z43" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="96"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z44" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="96"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z45" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="96"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z46" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="96"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z47" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="96"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z48" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="96"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z49" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="96"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z50" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="96"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z51" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16">
+        <f t="shared" ref="D52:D64" si="6">IF(C52=C$20,D$20,IF(C52=C$21,D$21,IF(C52=C$22,D$22,IF(C52=C$23,D$23,IF(C52=C$24,D$24,IF(C52=C$25,D$25,IF(C52=C$26,D$26,IF(C52=C$27,D$27,IF(C52=C$28,D$28,IF(C52=C$29,D$29,IF(C52=C$30,D$30,IF(C52=C$31,D$31,IF(C52=C$32,D$32,IF(C52=C$33,D$33,IF(C52=C$34,D$34,IF(C52=C$35,D$35,IF(C52=C$36,D$36,IF(C52=C$37,D$37,IF(C52=C$38,D$38,IF(C52=C$39,D$39,IF(C52=C$40,D$40,)))))))))))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="96"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z52" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="96"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z53" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="96"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z54" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="96"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z55" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="96"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z56" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD56" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="96"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z57" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="96"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z58" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="96"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z59" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="96"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z60" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="96"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z61" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="32"/>
+      <c r="AB61" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="96"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z62" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD62" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="96"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="27"/>
+      <c r="X63" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z63" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="96"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="Z64" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="32"/>
+      <c r="AB64" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ок</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AB40:AC40"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N15:O36 N38:O40 N37">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M40">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>